--- a/Input/Bupa/benefits.xlsx
+++ b/Input/Bupa/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -220,6 +220,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Regional Middle East</t>
     </r>
@@ -238,6 +239,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Worldwide excluding USA</t>
     </r>
@@ -336,7 +338,7 @@
     <t xml:space="preserve">2024-03-31</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE</t>
+    <t xml:space="preserve">NE/Dubai</t>
   </si>
   <si>
     <t xml:space="preserve">bupa</t>
@@ -412,9 +414,6 @@
     <t xml:space="preserve">20%/20% - Ultimate</t>
   </si>
   <si>
-    <t xml:space="preserve">Semi-Annually</t>
-  </si>
-  <si>
     <t xml:space="preserve">20%co-pay - 20%</t>
   </si>
   <si>
@@ -471,9 +470,6 @@
     <t xml:space="preserve">Worldwide</t>
   </si>
   <si>
-    <t xml:space="preserve">Quarterly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Middle East</t>
   </si>
   <si>
@@ -505,9 +501,6 @@
   <si>
     <t xml:space="preserve">Complimentary therapies and Chinese medicine- Covered in full
 Ayurveda and Homeopathy- Covered in full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly</t>
   </si>
 </sst>
 </file>
@@ -518,7 +511,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -551,11 +544,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -600,7 +589,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -629,10 +618,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,13 +642,13 @@
   <dimension ref="A1:BM5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BG3" activeCellId="0" sqref="BG3"/>
+      <selection pane="topLeft" activeCell="BH2" activeCellId="0" sqref="BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.08"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="62" min="17" style="0" width="11.52"/>
@@ -1028,17 +1013,17 @@
       <c r="BJ2" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BK2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BL2" s="7" t="s">
         <v>97</v>
       </c>
       <c r="BM2" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="215.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -1188,22 +1173,20 @@
       <c r="BE3" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BK3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="BL3" s="8" t="s">
+      <c r="BL3" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>97</v>
@@ -1237,11 +1220,11 @@
         <v>67</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>59</v>
@@ -1250,20 +1233,20 @@
         <v>59</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>77</v>
@@ -1276,23 +1259,23 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>67</v>
@@ -1322,7 +1305,7 @@
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>87</v>
@@ -1345,19 +1328,17 @@
       <c r="BD4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BJ4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BL4" s="8" t="s">
-        <v>132</v>
+      <c r="BJ4" s="3"/>
+      <c r="BL4" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>97</v>
@@ -1395,7 +1376,7 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>59</v>
@@ -1417,7 +1398,7 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>77</v>
@@ -1430,20 +1411,20 @@
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>67</v>
@@ -1476,7 +1457,7 @@
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX5" s="5" t="s">
         <v>85</v>
@@ -1499,9 +1480,7 @@
       <c r="BD5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BJ5" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="BJ5" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Input/Bupa/benefits.xlsx
+++ b/Input/Bupa/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -414,9 +414,6 @@
     <t xml:space="preserve">20%/20% - Ultimate</t>
   </si>
   <si>
-    <t xml:space="preserve">Semi-Annually</t>
-  </si>
-  <si>
     <t xml:space="preserve">20%co-pay - 20%</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t xml:space="preserve">Worldwide</t>
   </si>
   <si>
-    <t xml:space="preserve">Quarterly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Middle East</t>
   </si>
   <si>
@@ -507,9 +501,6 @@
   <si>
     <t xml:space="preserve">Complimentary therapies and Chinese medicine- Covered in full
 Ayurveda and Homeopathy- Covered in full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly</t>
   </si>
 </sst>
 </file>
@@ -654,17 +645,17 @@
   </sheetPr>
   <dimension ref="A1:BM5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BH3" activeCellId="0" sqref="BH3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="82.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="45.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="29.59"/>
   </cols>
@@ -1035,7 +1026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="215.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -1185,11 +1176,9 @@
       <c r="BE3" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="BL3" s="8" t="s">
         <v>99</v>
@@ -1197,10 +1186,10 @@
     </row>
     <row r="4" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>97</v>
@@ -1234,11 +1223,11 @@
         <v>67</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>59</v>
@@ -1247,20 +1236,20 @@
         <v>59</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>77</v>
@@ -1273,23 +1262,23 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>67</v>
@@ -1319,7 +1308,7 @@
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>87</v>
@@ -1342,19 +1331,17 @@
       <c r="BD4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BJ4" s="4" t="s">
+      <c r="BJ4" s="4"/>
+      <c r="BL4" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BL4" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>97</v>
@@ -1392,7 +1379,7 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>59</v>
@@ -1414,7 +1401,7 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>77</v>
@@ -1427,20 +1414,20 @@
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>67</v>
@@ -1473,7 +1460,7 @@
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX5" s="6" t="s">
         <v>85</v>
@@ -1496,9 +1483,7 @@
       <c r="BD5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BJ5" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="BJ5" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Input/Bupa/benefits.xlsx
+++ b/Input/Bupa/benefits.xlsx
@@ -332,10 +332,10 @@
     <t xml:space="preserve">Nil/Nil</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-31</t>
+    <t xml:space="preserve">2025-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-30</t>
   </si>
   <si>
     <t xml:space="preserve">NE/Dubai</t>
@@ -645,11 +645,11 @@
   </sheetPr>
   <dimension ref="A1:BM5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AX2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BJ3" activeCellId="0" sqref="BJ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57.93"/>
